--- a/hans/OcrmExpenseTableEntity.xlsx
+++ b/hans/OcrmExpenseTableEntity.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="257">
   <si>
     <t>_id</t>
   </si>
@@ -769,6 +769,21 @@
   </si>
   <si>
     <t>2462</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5502.09-办公费用 ", "content" : "FIONA 公司行政年检-王燕RMB", "payAmount" : { "$numberInt" : "6275" } } ]</t>
+  </si>
+  <si>
+    <t>6275</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5502.09-办公费用 ", "content" : "TOUCHSTONE 2023年行政年检-王燕RMB", "payAmount" : { "$numberInt" : "6275" } } ]</t>
   </si>
 </sst>
 </file>
@@ -812,7 +827,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C92"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -1805,6 +1820,28 @@
         <v>251</v>
       </c>
     </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>252</v>
+      </c>
+      <c r="B91" t="s">
+        <v>253</v>
+      </c>
+      <c r="C91" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>255</v>
+      </c>
+      <c r="B92" t="s">
+        <v>256</v>
+      </c>
+      <c r="C92" t="s">
+        <v>254</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/hans/OcrmExpenseTableEntity.xlsx
+++ b/hans/OcrmExpenseTableEntity.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="316">
   <si>
     <t>_id</t>
   </si>
@@ -784,6 +784,183 @@
   </si>
   <si>
     <t>[ { "fundCategory" : "5502.09-办公费用 ", "content" : "TOUCHSTONE 2023年行政年检-王燕RMB", "payAmount" : { "$numberInt" : "6275" } } ]</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5502.03-招待费", "content" : "招待钢管客户和地面公司\n", "payAmount" : { "$numberInt" : "6969" } }, { "fundCategory" : "5502.03-招待费", "content" : "招待钢管客户和地面公司", "payAmount" : { "$numberInt" : "9090" } } ]</t>
+  </si>
+  <si>
+    <t>16059</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "2207-分红支出", "content" : "321", "payAmount" : { "$numberInt" : "132" } } ]</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5501.13-招待费", "content" : "钢管项目请货主高总等吃饭", "payAmount" : { "$numberInt" : "450" } } ]</t>
+  </si>
+  <si>
+    <t>450</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "2201-划转", "content" : "划款兴业——5月公积金", "payAmount" : { "$numberInt" : "16000" } } ]</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "2201-划转", "content" : "划款工行社保户——5月社保", "payAmount" : { "$numberInt" : "44000" } } ]</t>
+  </si>
+  <si>
+    <t>44000</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "2205-税金及其他", "content" : "信智5月社保费", "payAmount" : { "$numberInt" : "16240" } } ]</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "2205-税金及其他", "content" : "5月社保费", "payAmount" : 44006.98 } ]</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5502.14-员工费用", "content" : "贵州道路交通费", "payAmount" : { "$numberInt" : "100" } } ]</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "2205-税金及其他", "content" : "信智5月个税", "payAmount" : 1826.18 } ]</t>
+  </si>
+  <si>
+    <t>1826.18</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5502.09-办公费用 ", "content" : "保洁包月费", "payAmount" : { "$numberInt" : "1000" } } ]</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5502.14-员工费用", "content" : "贵州旅游机票费", "payAmount" : { "$numberInt" : "17361" } }, { "fundCategory" : "5502.14-员工费用", "content" : "贵州旅游酒店费", "payAmount" : { "$numberInt" : "6898" } }, { "fundCategory" : "5502.14-员工费用", "content" : "贵州旅游租车费", "payAmount" : { "$numberInt" : "3211" } }, { "fundCategory" : "5502.14-员工费用", "content" : "贵州旅游高速路费", "payAmount" : { "$numberInt" : "1612" } }, { "fundCategory" : "5502.14-员工费用", "content" : "贵州旅游景区票费", "payAmount" : { "$numberInt" : "7720" } }, { "fundCategory" : "5502.14-员工费用", "content" : "贵州旅游加油费", "payAmount" : 2015.19 }, { "fundCategory" : "5502.14-员工费用", "content" : "贵州旅游餐费", "payAmount" : { "$numberInt" : "1410" } }, { "fundCategory" : "5502.14-员工费用", "content" : "贵州旅游打车费", "payAmount" : { "$numberInt" : "181" } } ]</t>
+  </si>
+  <si>
+    <t>40408.19</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5502.09-办公费用 ", "content" : "咖啡豆费", "payAmount" : 299.42 }, { "fundCategory" : "5502.03-招待费", "content" : "客餐费-禛航", "payAmount" : { "$numberInt" : "660" } } ]</t>
+  </si>
+  <si>
+    <t>959.42</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5502.14-员工费用", "content" : "贵州机票费用", "payAmount" : { "$numberInt" : "3964" } }, { "fundCategory" : "5502.14-员工费用", "content" : "餐饮费", "payAmount" : { "$numberInt" : "1330" } }, { "fundCategory" : "5502.14-员工费用", "content" : "酒店", "payAmount" : { "$numberInt" : "12737" } }, { "fundCategory" : "5502.14-员工费用", "content" : "停车费", "payAmount" : { "$numberInt" : "27" } } ]</t>
+  </si>
+  <si>
+    <t>18058</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5502.03-招待费", "content" : "招待正德喝酒", "payAmount" : { "$numberInt" : "10800" } } ]</t>
+  </si>
+  <si>
+    <t>10800</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5502.03-招待费", "content" : "潘安华介绍货代公司吃饭", "payAmount" : { "$numberInt" : "692" } } ]</t>
+  </si>
+  <si>
+    <t>692</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5502.14-员工费用", "content" : "浦东机场至住地出租车费", "payAmount" : { "$numberInt" : "148" } } ]</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5502.14-员工费用", "content" : "餐费", "payAmount" : { "$numberInt" : "52" } }, { "fundCategory" : "5502.14-员工费用", "content" : "餐费", "payAmount" : { "$numberInt" : "30" } }, { "fundCategory" : "5502.14-员工费用", "content" : "上海飞贵阳机票", "payAmount" : { "$numberInt" : "1898" } }, { "fundCategory" : "5502.14-员工费用", "content" : "停车费 ", "payAmount" : { "$numberInt" : "10" } }, { "fundCategory" : "5502.14-员工费用", "content" : "停车费 高速路费 出租车费", "payAmount" : { "$numberInt" : "291" } } ]</t>
+  </si>
+  <si>
+    <t>2281</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5502.14-员工费用", "content" : "2023年体检费", "payAmount" : { "$numberInt" : "2000" } }, { "fundCategory" : "5502.14-员工费用", "content" : "6月办公楼外停车费", "payAmount" : { "$numberInt" : "500" } } ]</t>
+  </si>
+  <si>
+    <t>2500</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5502.14-员工费用", "content" : "2023体检费", "payAmount" : { "$numberInt" : "2000" } } ]</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5502.14-员工费用", "content" : "公司团建机场来回打车费", "payAmount" : { "$numberInt" : "287" } }, { "fundCategory" : "5502.14-员工费用", "content" : "到付快递签收费", "payAmount" : { "$numberInt" : "12" } } ]</t>
+  </si>
+  <si>
+    <t>299</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5502.14-员工费用", "content" : "停车费", "payAmount" : { "$numberInt" : "550" } } ]</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5502.09-办公费用 ", "content" : "亚欧邮箱6年服务费", "payAmount" : { "$numberInt" : "1800" } } ]</t>
+  </si>
+  <si>
+    <t>1800</t>
   </si>
 </sst>
 </file>
@@ -827,7 +1004,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C92"/>
+  <dimension ref="A1:C114"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -1842,6 +2019,248 @@
         <v>254</v>
       </c>
     </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>257</v>
+      </c>
+      <c r="B93" t="s">
+        <v>258</v>
+      </c>
+      <c r="C93" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>260</v>
+      </c>
+      <c r="B94" t="s">
+        <v>261</v>
+      </c>
+      <c r="C94" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>262</v>
+      </c>
+      <c r="B95" t="s">
+        <v>263</v>
+      </c>
+      <c r="C95" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>265</v>
+      </c>
+      <c r="B96" t="s">
+        <v>266</v>
+      </c>
+      <c r="C96" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>267</v>
+      </c>
+      <c r="B97" t="s">
+        <v>268</v>
+      </c>
+      <c r="C97" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>270</v>
+      </c>
+      <c r="B98" t="s">
+        <v>271</v>
+      </c>
+      <c r="C98" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>272</v>
+      </c>
+      <c r="B99" t="s">
+        <v>273</v>
+      </c>
+      <c r="C99" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>274</v>
+      </c>
+      <c r="B100" t="s">
+        <v>275</v>
+      </c>
+      <c r="C100" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>276</v>
+      </c>
+      <c r="B101" t="s">
+        <v>277</v>
+      </c>
+      <c r="C101" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>279</v>
+      </c>
+      <c r="B102" t="s">
+        <v>280</v>
+      </c>
+      <c r="C102" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>281</v>
+      </c>
+      <c r="B103" t="s">
+        <v>282</v>
+      </c>
+      <c r="C103" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>284</v>
+      </c>
+      <c r="B104" t="s">
+        <v>285</v>
+      </c>
+      <c r="C104" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>287</v>
+      </c>
+      <c r="B105" t="s">
+        <v>288</v>
+      </c>
+      <c r="C105" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>290</v>
+      </c>
+      <c r="B106" t="s">
+        <v>291</v>
+      </c>
+      <c r="C106" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>293</v>
+      </c>
+      <c r="B107" t="s">
+        <v>294</v>
+      </c>
+      <c r="C107" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>296</v>
+      </c>
+      <c r="B108" t="s">
+        <v>297</v>
+      </c>
+      <c r="C108" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>299</v>
+      </c>
+      <c r="B109" t="s">
+        <v>300</v>
+      </c>
+      <c r="C109" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>302</v>
+      </c>
+      <c r="B110" t="s">
+        <v>303</v>
+      </c>
+      <c r="C110" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>305</v>
+      </c>
+      <c r="B111" t="s">
+        <v>306</v>
+      </c>
+      <c r="C111" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>308</v>
+      </c>
+      <c r="B112" t="s">
+        <v>309</v>
+      </c>
+      <c r="C112" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>311</v>
+      </c>
+      <c r="B113" t="s">
+        <v>312</v>
+      </c>
+      <c r="C113" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>313</v>
+      </c>
+      <c r="B114" t="s">
+        <v>314</v>
+      </c>
+      <c r="C114" t="s">
+        <v>315</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/hans/OcrmExpenseTableEntity.xlsx
+++ b/hans/OcrmExpenseTableEntity.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="327">
   <si>
     <t>_id</t>
   </si>
@@ -961,6 +961,39 @@
   </si>
   <si>
     <t>1800</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5502.14-员工费用", "content" : "2023年6月12日凌晨虹桥机场至住地出租车费", "payAmount" : { "$numberInt" : "126" } } ]</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5502.03-招待费", "content" : "宴请上港陈总，沪航柳总等六人", "payAmount" : { "$numberInt" : "1709" } } ]</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5502.14-员工费用", "content" : "6.7-6.11贵州团建餐费", "payAmount" : { "$numberInt" : "5664" } }, { "fundCategory" : "5502.14-员工费用", "content" : "6.7-6.11贵州团建景区小吃", "payAmount" : { "$numberInt" : "547" } }, { "fundCategory" : "5502.14-员工费用", "content" : "6.7-6.11贵州团建交通费", "payAmount" : { "$numberInt" : "204" } } ]</t>
+  </si>
+  <si>
+    <t>6415</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>[ { "fundCategory" : "5502.10-薪资", "content" : "信智6月工资", "payAmount" : 98309.7 }, { "fundCategory" : "2201-划转", "content" : "沈翠翠5月6月工资划转至兴业银行账户", "payAmount" : 11804.98 } ]</t>
+  </si>
+  <si>
+    <t>110114.68</t>
   </si>
 </sst>
 </file>
@@ -1004,7 +1037,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C114"/>
+  <dimension ref="A1:C118"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -2261,6 +2294,50 @@
         <v>315</v>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>316</v>
+      </c>
+      <c r="B115" t="s">
+        <v>317</v>
+      </c>
+      <c r="C115" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>318</v>
+      </c>
+      <c r="B116" t="s">
+        <v>319</v>
+      </c>
+      <c r="C116" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>321</v>
+      </c>
+      <c r="B117" t="s">
+        <v>322</v>
+      </c>
+      <c r="C117" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>324</v>
+      </c>
+      <c r="B118" t="s">
+        <v>325</v>
+      </c>
+      <c r="C118" t="s">
+        <v>326</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>